--- a/biology/Médecine/Nerf_trijumeau/Nerf_trijumeau.xlsx
+++ b/biology/Médecine/Nerf_trijumeau/Nerf_trijumeau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf trijumeau (V) est le cinquième nerf crânien.
 C'est un nerf « mixte », c'est-à-dire composé à la fois de neurones assurant une fonction motrice (pour mordre, mâcher et avaler) et de neurones sensitifs, plus nombreux, dont la fonction est de recevoir les sensations proprioceptives, de toucher, de douleur, etc. de la face et d'une partie de la « sphère ORL ». Ainsi les informations sensorielles en provenance du visage suivent un traitement parallèle mais distinct de l'information sensorielle provenant du reste du corps. Leur projection au niveau du cortex somatosensoriel se reflète sous la forme d'un « homoncule sensitif » où les différents téguments du visage sont « sur-représentés » en rapport de la surface qu'ils occupent proportionnellement au reste du corps.
@@ -513,9 +525,11 @@
           <t>Anatomie et fonctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nerf trijumeau est le plus grand des nerfs crâniens. Il est double : il y a un nerf trijumeau pour chaque hémi-face, un droit et un gauche. À l'instar du visage, le nerf trijumeau n'est pourtant pas exactement symétrique : il comporte plus de fibres nerveuses à gauche qu'à droite[1].Comme son étymologie l'indique, chaque nerf trijumeau (trois + geminus ; « trois fois jumelés ») est en fait composé de 3 branches : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nerf trijumeau est le plus grand des nerfs crâniens. Il est double : il y a un nerf trijumeau pour chaque hémi-face, un droit et un gauche. À l'instar du visage, le nerf trijumeau n'est pourtant pas exactement symétrique : il comporte plus de fibres nerveuses à gauche qu'à droite.Comme son étymologie l'indique, chaque nerf trijumeau (trois + geminus ; « trois fois jumelés ») est en fait composé de 3 branches : 
 le nerf ophtalmique (V1) : sensitif.
 le nerf maxillaire (V2) : sensitif.
 le nerf mandibulaire (V3) : à la fois sensitif et moteur.
@@ -526,33 +540,297 @@
 Chacune des trois branches du nerf trijumeau se distribue sur des régions distinctes de la face formant ainsi 3 dermatomes aux frontières relativement nettes, contrairement aux dermatomes du reste du corps qui se recouvrent largement les uns les autres. Cela explique que l'injection d'anesthésiques locaux (ex. : lidocaïne) entraîne une paralysie et une perte complète de sensation sur des zones très bien définies du visage et la bouche : on peut par exemple engourdir les dents d'un seul côté via l'injection du nerf mandibulaire, sans affecter la sensibilité de la mâchoire supérieure. Néanmoins, certains traumas ou maladies peuvent parfois affecter à la fois deux ou trois branches du nerf trijumeau. Selon les cas on parle de :
 distribution V1/V2, lorsque les branches ophtalmique et maxillaire sont touchées ;
 distribution V2/V3, lorsque les branches maxillaire et mandibulaire sont touchées ;
-distribution V1-V3, lorsque les trois branches sont touchées.
-Nerf ophtalmique
-Anatomie
-Le nerf ophtalmique, V1 (parfois nommé « Nerf ophtalmique de Willis » ou « Nervus ophtalmicus » ), sort du crâne en passant par la fissure orbitaire supérieure du sphénoïde (ou « fente sphénomaxillaire supérieure ») pour entrer dans l'orbite.
-Fonction
-Il assure la communication sensitive entre le cerveau et le globe oculaire (conjonctive et cornée), ainsi que la peau du secteur situé au-dessus de l'œil (paupière, sourcil...), le nez (y compris le bout du nez, mais à l'exception des ailes du nez), la muqueuse nasale, les sinus frontaux, et une partie des méninges (dure-mère et vaisseaux sanguins) ainsi que la peau du front et du cuir chevelu[1], avec plusieurs collatérales sensitives :
+distribution V1-V3, lorsque les trois branches sont touchées.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nerf_trijumeau</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_trijumeau</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Anatomie et fonctions</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nerf ophtalmique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Anatomie</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf ophtalmique, V1 (parfois nommé « Nerf ophtalmique de Willis » ou « Nervus ophtalmicus » ), sort du crâne en passant par la fissure orbitaire supérieure du sphénoïde (ou « fente sphénomaxillaire supérieure ») pour entrer dans l'orbite.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nerf_trijumeau</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_trijumeau</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Anatomie et fonctions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nerf ophtalmique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Fonction</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Il assure la communication sensitive entre le cerveau et le globe oculaire (conjonctive et cornée), ainsi que la peau du secteur situé au-dessus de l'œil (paupière, sourcil...), le nez (y compris le bout du nez, mais à l'exception des ailes du nez), la muqueuse nasale, les sinus frontaux, et une partie des méninges (dure-mère et vaisseaux sanguins) ainsi que la peau du front et du cuir chevelu, avec plusieurs collatérales sensitives :
 nerf naso-ciliaire ;
 nerf lacrymal ;
 nerf frontal ;
-nerf supratrochléaire.
-Nerf maxillaire
-Anatomie
-Le nerf maxillaire,V2, sort du crâne en traversant le foramen grand rond jusqu’à la fosse ptérygopalatine. De là il entre dans un canal se dirigeant à l’inférieur de l’orbite (canal sous-orbitaire) d'où il sort par un petit trou (le foramen sous-orbitaire).
-Fonction
-Il innerve la peau de la zone située sous l'œil (dont paupière inférieure), la bouche[1], la joue, les narines, la lèvre supérieure, les dents du haut et les gencives, la muqueuse nasale et de la bouche, le toit du pharynx, le maxillaire, le sinus ethmoïde et sphénoïde, et les pièces des méninges, via plusieurs collatérales sensitives :
+nerf supratrochléaire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nerf_trijumeau</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_trijumeau</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Anatomie et fonctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nerf maxillaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Anatomie</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf maxillaire,V2, sort du crâne en traversant le foramen grand rond jusqu’à la fosse ptérygopalatine. De là il entre dans un canal se dirigeant à l’inférieur de l’orbite (canal sous-orbitaire) d'où il sort par un petit trou (le foramen sous-orbitaire).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nerf_trijumeau</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_trijumeau</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Anatomie et fonctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nerf maxillaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Fonction</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Il innerve la peau de la zone située sous l'œil (dont paupière inférieure), la bouche, la joue, les narines, la lèvre supérieure, les dents du haut et les gencives, la muqueuse nasale et de la bouche, le toit du pharynx, le maxillaire, le sinus ethmoïde et sphénoïde, et les pièces des méninges, via plusieurs collatérales sensitives :
 nerf sous-orbitaire ;
 ganglion sphéno-palatin ;
 nerf naso-palatin ;
 nerf dentaire antérieur ;
 nerf dentaire postérieur ;
-nerf du canal ptérygoïdien.
-Nerf mandibulaire
-Le nerf mandibulaire (V3) transporte l'information sensitive de la lèvre inférieure, des dents et des gencives inférieures, du menton et de la mâchoire (à l'exception de l'angle de la mâchoire, qui est fourni par C2-C3), des parties de l'oreille externe, et des parties des méninges. Le nerf mandibulaire transporte l'information tactile (la position) et sensitive (la température et la douleur) de la bouche. Il ne porte pas de sensation gustative au sens strict (la corde du tympan est responsable du goût en relayant les sensations nerveuses issues des bourgeons du goût de la langue), mais une de ses branches, le nerf lingual, comprend plusieurs types de fibres nerveuses qui ne sont pas originaires du nerf mandibulaire. De ce fait, il relaie une information qui contribue aux sensations gustatives telle que, entre autres cas, le menthol, qui agit sur les thermorécepteurs, ou la capsaïcine du piment, qui agit sur les récepteurs à la douleur. Chez les personnes souffrant d'agueusie (altération des perceptions gustatives), cette perception trijéminale prend une importance capitale pour le maintien d'une perception gustative.
-Anatomie
-Le nerf mandibulaire, V3 et sa branche motrice Vm sortent du crâne vers le bas par l'os sphénoïde par un trou dit foramen ovale. Par rapport aux deux autres (V1 et V2), il a une composante supplémentaire moteur, qui peut aller dans un compartiment facial séparé. Les fibres neuronales, ramifiées, gagnent presque toutes directement les tissus qu'elles desservent[1].
-Fonction
-Les faisceaux d'axones sensitifs innervent la peau de la zone temporale postérieure, la partie antérieure du pavillon de l'oreille, le conduit auditif externe, la lèvre inférieure et le menton, ainsi qu'une partie de la langue et de la muqueuse de la cavité buccale. Certains axones sensitifs pénètrent le maxillaire inférieur via des canaux dédiés pour innerver les dents et apparaître du trou mentonnier pour innerver la peau autour de la mâchoire inférieure[1] (sauf l'angle qui est lui innervé par C2-C3). Les axones moteurs sont situés dans les nerfs moteurs, qui sont fonctionnellement très différents des nerfs sensitifs (leur association avec les nerfs sensitifs dans les branches périphériques du nerf mandibulaire pourrait être une commodité de l'évolution plutôt qu'une nécessité fonctionnelle) ; ils innervent la musculature de la mâchoire inférieure[1] en contrôlant huit muscles, dont quatre impliqués dans la mastication. Cette branche V3 a plusieurs collatérales :
+nerf du canal ptérygoïdien.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nerf_trijumeau</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_trijumeau</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Anatomie et fonctions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nerf mandibulaire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf mandibulaire (V3) transporte l'information sensitive de la lèvre inférieure, des dents et des gencives inférieures, du menton et de la mâchoire (à l'exception de l'angle de la mâchoire, qui est fourni par C2-C3), des parties de l'oreille externe, et des parties des méninges. Le nerf mandibulaire transporte l'information tactile (la position) et sensitive (la température et la douleur) de la bouche. Il ne porte pas de sensation gustative au sens strict (la corde du tympan est responsable du goût en relayant les sensations nerveuses issues des bourgeons du goût de la langue), mais une de ses branches, le nerf lingual, comprend plusieurs types de fibres nerveuses qui ne sont pas originaires du nerf mandibulaire. De ce fait, il relaie une information qui contribue aux sensations gustatives telle que, entre autres cas, le menthol, qui agit sur les thermorécepteurs, ou la capsaïcine du piment, qui agit sur les récepteurs à la douleur. Chez les personnes souffrant d'agueusie (altération des perceptions gustatives), cette perception trijéminale prend une importance capitale pour le maintien d'une perception gustative.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nerf_trijumeau</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_trijumeau</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Anatomie et fonctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nerf mandibulaire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Anatomie</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf mandibulaire, V3 et sa branche motrice Vm sortent du crâne vers le bas par l'os sphénoïde par un trou dit foramen ovale. Par rapport aux deux autres (V1 et V2), il a une composante supplémentaire moteur, qui peut aller dans un compartiment facial séparé. Les fibres neuronales, ramifiées, gagnent presque toutes directement les tissus qu'elles desservent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nerf_trijumeau</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_trijumeau</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Anatomie et fonctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nerf mandibulaire</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Fonction</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Les faisceaux d'axones sensitifs innervent la peau de la zone temporale postérieure, la partie antérieure du pavillon de l'oreille, le conduit auditif externe, la lèvre inférieure et le menton, ainsi qu'une partie de la langue et de la muqueuse de la cavité buccale. Certains axones sensitifs pénètrent le maxillaire inférieur via des canaux dédiés pour innerver les dents et apparaître du trou mentonnier pour innerver la peau autour de la mâchoire inférieure (sauf l'angle qui est lui innervé par C2-C3). Les axones moteurs sont situés dans les nerfs moteurs, qui sont fonctionnellement très différents des nerfs sensitifs (leur association avec les nerfs sensitifs dans les branches périphériques du nerf mandibulaire pourrait être une commodité de l'évolution plutôt qu'une nécessité fonctionnelle) ; ils innervent la musculature de la mâchoire inférieure en contrôlant huit muscles, dont quatre impliqués dans la mastication. Cette branche V3 a plusieurs collatérales :
 vers les muscles manducateurs :
 nerf profond du muscle temporal ;
 nerf du muscle ptérygoïdien latéral ;
@@ -573,31 +851,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Nerf_trijumeau</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nerf_trijumeau</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nerf_trijumeau</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_trijumeau</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Névralgie du trijumeau.
 Herpès labial (virus abrité dans le ganglion de Gasser).
